--- a/matching/Matching-first-last-lab.xlsx
+++ b/matching/Matching-first-last-lab.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dimst\My Drive\PhD\Thesis\Results\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dimst\My Drive\PhD\Thesis\Results\matching\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EA2F9D9-247F-4C24-AB79-E1EFFAAEAB98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5EF27FF-8E28-44F3-9DD9-72E5C2155D58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="26">
   <si>
     <t>Drugs</t>
   </si>
@@ -80,13 +80,31 @@
     <t>Multilayer Perceptron</t>
   </si>
   <si>
-    <t>Best machine learning models for propensity score matching in Lactulose separated into the two confounder sets of the literature review and clinician, where laboratory tests are represented as first and last value.</t>
-  </si>
-  <si>
-    <t>Best machine learning models for propensity score matching in Simethicone separated into the two confounder sets of the literature review and clinician, where laboratory tests are represented as first and last value.</t>
-  </si>
-  <si>
-    <t>Best machine learning models for propensity score matching in Prochlorperazine separated into the two confounder sets of the literature review and clinician, where laboratory tests are represented as first and last value.</t>
+    <t>Best machine learning models for propensity score matching in Simethicone separated into the two confounder sets of the literature review and clinician, where laboratory tests are represented as first and last value (Original - where continuous variables use their original values, and concomitant drugs are measured as days of administration.)</t>
+  </si>
+  <si>
+    <t>Best machine learning models for propensity score matching in Simethicone separated into the two confounder sets of the literature review and clinician, where laboratory tests are represented as first and last value (Normalized - where continuous variables use normalized values, and concomitant drugs are binary for take it or not.)</t>
+  </si>
+  <si>
+    <t>Best machine learning models for propensity score matching in Simethicone separated into the two confounder sets of the literature review and clinician, where laboratory tests are represented as first and last value (Binary -where continuous variables use their original values, and concomitant drugs are binary for take it or not.)</t>
+  </si>
+  <si>
+    <t>Best machine learning models for propensity score matching in Prochlorperazine separated into the two confounder sets of the literature review and clinician, where laboratory tests are represented as first and last value (Original - where continuous variables use their original values, and concomitant drugs are measured as days of administration.).</t>
+  </si>
+  <si>
+    <t>Best machine learning models for propensity score matching in Prochlorperazine separated into the two confounder sets of the literature review and clinician, where laboratory tests are represented as first and last value (Binary -where continuous variables use their original values, and concomitant drugs are binary for take it or not.).</t>
+  </si>
+  <si>
+    <t>Best machine learning models for propensity score matching in Prochlorperazine separated into the two confounder sets of the literature review and clinician, where laboratory tests are represented as first and last value (Normalized - where continuous variables use normalized values, and concomitant drugs are binary for take it or not.).</t>
+  </si>
+  <si>
+    <t>Best machine learning models for propensity score matching in Lactulose separated into the two confounder sets of the literature review and clinician, where laboratory tests are represented as first and last value (Original - where continuous variables use their original values, and concomitant drugs are measured as days of administration.).</t>
+  </si>
+  <si>
+    <t>Best machine learning models for propensity score matching in Lactulose separated into the two confounder sets of the literature review and clinician, where laboratory tests are represented as first and last value (Binary -where continuous variables use their original values, and concomitant drugs are binary for take it or not.).</t>
+  </si>
+  <si>
+    <t>Best machine learning models for propensity score matching in Lactulose separated into the two confounder sets of the literature review and clinician, where laboratory tests are represented as first and last value (Normalized - where continuous variables use normalized values, and concomitant drugs are binary for take it or not.).</t>
   </si>
 </sst>
 </file>
@@ -407,10 +425,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N9"/>
+  <dimension ref="A1:N31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:E9"/>
+      <selection activeCell="G23" sqref="G23:N27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -420,7 +438,7 @@
     <col min="4" max="4" width="21.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -437,7 +455,7 @@
         <v>2</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
@@ -513,6 +531,14 @@
       <c r="E4">
         <v>0.1</v>
       </c>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
@@ -530,22 +556,30 @@
       <c r="E5">
         <v>0.1</v>
       </c>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C6">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="D6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E6">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.35">
@@ -553,16 +587,16 @@
         <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C7">
-        <v>0.1</v>
+        <v>0.4</v>
       </c>
       <c r="D7" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E7">
-        <v>0.1</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.35">
@@ -573,13 +607,13 @@
         <v>5</v>
       </c>
       <c r="C8">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="D8" t="s">
         <v>5</v>
       </c>
       <c r="E8">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.35">
@@ -599,9 +633,401 @@
         <v>0.1</v>
       </c>
     </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E12" t="s">
+        <v>2</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13">
+        <v>0.15</v>
+      </c>
+      <c r="D13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13">
+        <v>0.15</v>
+      </c>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14">
+        <v>0.2</v>
+      </c>
+      <c r="D14" t="s">
+        <v>5</v>
+      </c>
+      <c r="E14">
+        <v>0.2</v>
+      </c>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15">
+        <v>0.1</v>
+      </c>
+      <c r="D15" t="s">
+        <v>5</v>
+      </c>
+      <c r="E15">
+        <v>0.1</v>
+      </c>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B16" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16">
+        <v>0.1</v>
+      </c>
+      <c r="D16" t="s">
+        <v>5</v>
+      </c>
+      <c r="E16">
+        <v>0.1</v>
+      </c>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>11</v>
+      </c>
+      <c r="B17" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17">
+        <v>0.2</v>
+      </c>
+      <c r="D17" t="s">
+        <v>7</v>
+      </c>
+      <c r="E17">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18">
+        <v>0.15</v>
+      </c>
+      <c r="D18" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>13</v>
+      </c>
+      <c r="B19" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19">
+        <v>0.1</v>
+      </c>
+      <c r="D19" t="s">
+        <v>16</v>
+      </c>
+      <c r="E19">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>14</v>
+      </c>
+      <c r="B20" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20">
+        <v>0.1</v>
+      </c>
+      <c r="D20" t="s">
+        <v>16</v>
+      </c>
+      <c r="E20">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B23" t="s">
+        <v>1</v>
+      </c>
+      <c r="C23" t="s">
+        <v>2</v>
+      </c>
+      <c r="D23" t="s">
+        <v>3</v>
+      </c>
+      <c r="E23" t="s">
+        <v>2</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
+      <c r="N23" s="1"/>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>4</v>
+      </c>
+      <c r="B24" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24">
+        <v>0.1</v>
+      </c>
+      <c r="D24" t="s">
+        <v>16</v>
+      </c>
+      <c r="E24">
+        <v>0.2</v>
+      </c>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>6</v>
+      </c>
+      <c r="B25" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25">
+        <v>0.2</v>
+      </c>
+      <c r="D25" t="s">
+        <v>7</v>
+      </c>
+      <c r="E25">
+        <v>0.3</v>
+      </c>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="1"/>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>8</v>
+      </c>
+      <c r="B26" t="s">
+        <v>16</v>
+      </c>
+      <c r="C26">
+        <v>0.1</v>
+      </c>
+      <c r="D26" t="s">
+        <v>16</v>
+      </c>
+      <c r="E26">
+        <v>0.1</v>
+      </c>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+      <c r="N26" s="1"/>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>9</v>
+      </c>
+      <c r="B27" t="s">
+        <v>5</v>
+      </c>
+      <c r="C27">
+        <v>0.1</v>
+      </c>
+      <c r="D27" t="s">
+        <v>5</v>
+      </c>
+      <c r="E27">
+        <v>0.1</v>
+      </c>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
+      <c r="M27" s="1"/>
+      <c r="N27" s="1"/>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>11</v>
+      </c>
+      <c r="B28" t="s">
+        <v>7</v>
+      </c>
+      <c r="C28">
+        <v>0.2</v>
+      </c>
+      <c r="D28" t="s">
+        <v>7</v>
+      </c>
+      <c r="E28">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>12</v>
+      </c>
+      <c r="B29" t="s">
+        <v>7</v>
+      </c>
+      <c r="C29">
+        <v>0.2</v>
+      </c>
+      <c r="D29" t="s">
+        <v>7</v>
+      </c>
+      <c r="E29">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>13</v>
+      </c>
+      <c r="B30" t="s">
+        <v>5</v>
+      </c>
+      <c r="C30">
+        <v>0.1</v>
+      </c>
+      <c r="D30" t="s">
+        <v>5</v>
+      </c>
+      <c r="E30">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>14</v>
+      </c>
+      <c r="B31" t="s">
+        <v>7</v>
+      </c>
+      <c r="C31">
+        <v>0.1</v>
+      </c>
+      <c r="D31" t="s">
+        <v>7</v>
+      </c>
+      <c r="E31">
+        <v>0.1</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="G1:N3"/>
+  <mergeCells count="3">
+    <mergeCell ref="G1:N5"/>
+    <mergeCell ref="G23:N27"/>
+    <mergeCell ref="G12:N16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -609,10 +1035,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA350CC0-AB52-4650-94D3-D7EA48999CF9}">
-  <dimension ref="A1:K9"/>
+  <dimension ref="A1:M30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:K5"/>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection sqref="A1:M30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -624,7 +1050,7 @@
     <col min="5" max="5" width="4.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -641,14 +1067,16 @@
         <v>2</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -669,8 +1097,10 @@
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -691,8 +1121,10 @@
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -713,8 +1145,10 @@
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -735,8 +1169,10 @@
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -752,8 +1188,15 @@
       <c r="E6">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -770,7 +1213,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -787,7 +1230,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -804,9 +1247,405 @@
         <v>0.1</v>
       </c>
     </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E11" t="s">
+        <v>2</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12">
+        <v>0.2</v>
+      </c>
+      <c r="D12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12">
+        <v>0.15</v>
+      </c>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13">
+        <v>0.1</v>
+      </c>
+      <c r="D13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13">
+        <v>0.1</v>
+      </c>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14">
+        <v>0.1</v>
+      </c>
+      <c r="D14" t="s">
+        <v>16</v>
+      </c>
+      <c r="E14">
+        <v>0.1</v>
+      </c>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15">
+        <v>0.1</v>
+      </c>
+      <c r="D15" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15">
+        <v>0.1</v>
+      </c>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16">
+        <v>0.2</v>
+      </c>
+      <c r="D16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16">
+        <v>0.2</v>
+      </c>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17">
+        <v>0.1</v>
+      </c>
+      <c r="D17" t="s">
+        <v>7</v>
+      </c>
+      <c r="E17">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18">
+        <v>0.2</v>
+      </c>
+      <c r="D18" t="s">
+        <v>16</v>
+      </c>
+      <c r="E18">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>14</v>
+      </c>
+      <c r="B19" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19">
+        <v>0.2</v>
+      </c>
+      <c r="D19" t="s">
+        <v>5</v>
+      </c>
+      <c r="E19">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22" t="s">
+        <v>1</v>
+      </c>
+      <c r="C22" t="s">
+        <v>2</v>
+      </c>
+      <c r="D22" t="s">
+        <v>3</v>
+      </c>
+      <c r="E22" t="s">
+        <v>2</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>4</v>
+      </c>
+      <c r="B23" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23">
+        <v>0.3</v>
+      </c>
+      <c r="D23" t="s">
+        <v>5</v>
+      </c>
+      <c r="E23">
+        <v>0.3</v>
+      </c>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>6</v>
+      </c>
+      <c r="B24" t="s">
+        <v>5</v>
+      </c>
+      <c r="C24">
+        <v>0.15</v>
+      </c>
+      <c r="D24" t="s">
+        <v>7</v>
+      </c>
+      <c r="E24">
+        <v>0.1</v>
+      </c>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>8</v>
+      </c>
+      <c r="B25" t="s">
+        <v>5</v>
+      </c>
+      <c r="C25">
+        <v>0.1</v>
+      </c>
+      <c r="D25" t="s">
+        <v>5</v>
+      </c>
+      <c r="E25">
+        <v>0.1</v>
+      </c>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>9</v>
+      </c>
+      <c r="B26" t="s">
+        <v>10</v>
+      </c>
+      <c r="C26">
+        <v>0.1</v>
+      </c>
+      <c r="D26" t="s">
+        <v>5</v>
+      </c>
+      <c r="E26">
+        <v>0.1</v>
+      </c>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>11</v>
+      </c>
+      <c r="B27" t="s">
+        <v>10</v>
+      </c>
+      <c r="C27">
+        <v>0.2</v>
+      </c>
+      <c r="D27" t="s">
+        <v>10</v>
+      </c>
+      <c r="E27">
+        <v>0.2</v>
+      </c>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
+      <c r="M27" s="1"/>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>12</v>
+      </c>
+      <c r="B28" t="s">
+        <v>5</v>
+      </c>
+      <c r="C28">
+        <v>0.2</v>
+      </c>
+      <c r="D28" t="s">
+        <v>5</v>
+      </c>
+      <c r="E28">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>13</v>
+      </c>
+      <c r="B29" t="s">
+        <v>7</v>
+      </c>
+      <c r="C29">
+        <v>0.1</v>
+      </c>
+      <c r="D29" t="s">
+        <v>7</v>
+      </c>
+      <c r="E29">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>14</v>
+      </c>
+      <c r="B30" t="s">
+        <v>10</v>
+      </c>
+      <c r="C30">
+        <v>0.2</v>
+      </c>
+      <c r="D30" t="s">
+        <v>7</v>
+      </c>
+      <c r="E30">
+        <v>0.2</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="G1:K5"/>
+  <mergeCells count="3">
+    <mergeCell ref="G1:M6"/>
+    <mergeCell ref="G11:M16"/>
+    <mergeCell ref="G22:M27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -814,20 +1653,20 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7C44C8A-EB84-4F82-A651-F166915C418B}">
-  <dimension ref="A1:M9"/>
+  <dimension ref="A1:M29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21:M25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.36328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.36328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -844,7 +1683,7 @@
         <v>2</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
@@ -941,6 +1780,13 @@
       <c r="E5">
         <v>0.1</v>
       </c>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
@@ -1010,9 +1856,391 @@
         <v>0.1</v>
       </c>
     </row>
+    <row r="11" spans="1:13" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E11" t="s">
+        <v>2</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12">
+        <v>0.3</v>
+      </c>
+      <c r="D12" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12">
+        <v>0.2</v>
+      </c>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13">
+        <v>0.3</v>
+      </c>
+      <c r="D13" t="s">
+        <v>5</v>
+      </c>
+      <c r="E13">
+        <v>0.2</v>
+      </c>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14">
+        <v>0.1</v>
+      </c>
+      <c r="D14" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14">
+        <v>0.1</v>
+      </c>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15">
+        <v>0.1</v>
+      </c>
+      <c r="D15" t="s">
+        <v>5</v>
+      </c>
+      <c r="E15">
+        <v>0.1</v>
+      </c>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16">
+        <v>0.2</v>
+      </c>
+      <c r="D16" t="s">
+        <v>7</v>
+      </c>
+      <c r="E16">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17">
+        <v>0.1</v>
+      </c>
+      <c r="D17" t="s">
+        <v>7</v>
+      </c>
+      <c r="E17">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18">
+        <v>0.1</v>
+      </c>
+      <c r="D18" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>14</v>
+      </c>
+      <c r="B19" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19">
+        <v>0.15</v>
+      </c>
+      <c r="D19" t="s">
+        <v>5</v>
+      </c>
+      <c r="E19">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" t="s">
+        <v>2</v>
+      </c>
+      <c r="D21" t="s">
+        <v>3</v>
+      </c>
+      <c r="E21" t="s">
+        <v>2</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>4</v>
+      </c>
+      <c r="B22" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22">
+        <v>0.3</v>
+      </c>
+      <c r="D22" t="s">
+        <v>16</v>
+      </c>
+      <c r="E22">
+        <v>0.2</v>
+      </c>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>6</v>
+      </c>
+      <c r="B23" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23">
+        <v>0.3</v>
+      </c>
+      <c r="D23" t="s">
+        <v>7</v>
+      </c>
+      <c r="E23">
+        <v>0.2</v>
+      </c>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>8</v>
+      </c>
+      <c r="B24" t="s">
+        <v>5</v>
+      </c>
+      <c r="C24">
+        <v>0.1</v>
+      </c>
+      <c r="D24" t="s">
+        <v>5</v>
+      </c>
+      <c r="E24">
+        <v>0.1</v>
+      </c>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>9</v>
+      </c>
+      <c r="B25" t="s">
+        <v>16</v>
+      </c>
+      <c r="C25">
+        <v>0.1</v>
+      </c>
+      <c r="D25" t="s">
+        <v>10</v>
+      </c>
+      <c r="E25">
+        <v>0.1</v>
+      </c>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>11</v>
+      </c>
+      <c r="B26" t="s">
+        <v>10</v>
+      </c>
+      <c r="C26">
+        <v>0.25</v>
+      </c>
+      <c r="D26" t="s">
+        <v>10</v>
+      </c>
+      <c r="E26">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>12</v>
+      </c>
+      <c r="B27" t="s">
+        <v>5</v>
+      </c>
+      <c r="C27">
+        <v>0.1</v>
+      </c>
+      <c r="D27" t="s">
+        <v>5</v>
+      </c>
+      <c r="E27">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>13</v>
+      </c>
+      <c r="B28" t="s">
+        <v>5</v>
+      </c>
+      <c r="C28">
+        <v>0.1</v>
+      </c>
+      <c r="D28" t="s">
+        <v>5</v>
+      </c>
+      <c r="E28">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>14</v>
+      </c>
+      <c r="B29" t="s">
+        <v>10</v>
+      </c>
+      <c r="C29">
+        <v>0.2</v>
+      </c>
+      <c r="D29" t="s">
+        <v>5</v>
+      </c>
+      <c r="E29">
+        <v>0.1</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="G1:M4"/>
+  <mergeCells count="3">
+    <mergeCell ref="G1:M5"/>
+    <mergeCell ref="G11:M15"/>
+    <mergeCell ref="G21:M25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
